--- a/phonenumber.xlsx
+++ b/phonenumber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://astrosolutionscoth-my.sharepoint.com/personal/johmphot_astrosolutions_co_th/Documents/Honda/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://astrosolutionscoth-my.sharepoint.com/personal/johmphot_astrosolutions_co_th/Documents/Scripts/SendingSMSTwilio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{1535AE92-3DCB-3D4D-B4D1-7FF1F7B05734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A6CD2CAD-7659-1741-BC33-1808557B3329}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{1535AE92-3DCB-3D4D-B4D1-7FF1F7B05734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{29F0A8A5-274A-EF4C-A465-4B8196E562F1}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16160" xr2:uid="{B2E02428-59E3-B846-BF57-B4E37EE6E767}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>0891202034</t>
   </si>
@@ -45,30 +45,6 @@
   </si>
   <si>
     <t>XXXXXXXXXX</t>
-  </si>
-  <si>
-    <t>0877067917</t>
-  </si>
-  <si>
-    <t>HONDA84406</t>
-  </si>
-  <si>
-    <t>0850523115</t>
-  </si>
-  <si>
-    <t>HONDA84420</t>
-  </si>
-  <si>
-    <t>0656947987</t>
-  </si>
-  <si>
-    <t>HONDA84663</t>
-  </si>
-  <si>
-    <t>0845463956</t>
-  </si>
-  <si>
-    <t>HONDA86614</t>
   </si>
 </sst>
 </file>
@@ -119,10 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +417,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,52 +427,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
